--- a/DCISM_WBRMSystem/file/temp_inventory/LB 484 (74 items).xlsx
+++ b/DCISM_WBRMSystem/file/temp_inventory/LB 484 (74 items).xlsx
@@ -144,7 +144,7 @@
     <t>LB 484</t>
   </si>
   <si>
-    <t>6/11/2020</t>
+    <t>8/13/2020</t>
   </si>
   <si>
     <t>Aircon</t>
@@ -29836,7 +29836,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IPkpaPc3Usx7QQtoHOmqzm0oWtLfxAvOKb3nuqIeTmHxs++o4N6Zhwr0YMnlv6j2GkXthJgYNsbxl7VGZ0NUQQ==" saltValue="edA8Y8YWRIH7QL8w7nAPQA==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="5CxaKhHOWzhi2ZYldrjym9zIJxG33n+VhWSvY+6iZqU5gsCMkavjGqCrMQp77zF+jRQmhdUWGEOuUvWZNOmU2Q==" saltValue="01oOf/oO+uB6jjPUroJoVw==" spinCount="100000" sheet="1" objects="1" scenarios="1" pivotTables="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
   <extLst/>
